--- a/5.1.3/data.xlsx
+++ b/5.1.3/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavri\Documents\GitHub\mipt_labs\5.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748C170-DB3F-44DA-8457-A3F515325D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC99831-652D-4CEA-BF98-6A23A4A569BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Uнак</t>
   </si>
@@ -91,6 +92,45 @@
   </si>
   <si>
     <t>U_min</t>
+  </si>
+  <si>
+    <t>V, В</t>
+  </si>
+  <si>
+    <t>V_max, В</t>
+  </si>
+  <si>
+    <t>V_min, В</t>
+  </si>
+  <si>
+    <t>l_1, A</t>
+  </si>
+  <si>
+    <t>l_2, A</t>
+  </si>
+  <si>
+    <t>l_3, A</t>
+  </si>
+  <si>
+    <t>U_0, eV</t>
+  </si>
+  <si>
+    <t>эксперимент</t>
+  </si>
+  <si>
+    <t>теория</t>
+  </si>
+  <si>
+    <t>l, A</t>
+  </si>
+  <si>
+    <t>3.0 pm 02</t>
+  </si>
+  <si>
+    <t>1.6 pm 0.1</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -412,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +858,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>4.3</v>
       </c>
       <c r="D25">
@@ -856,6 +896,516 @@
       </c>
       <c r="O25">
         <v>64.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84C948D-B7F7-4F17-B0F9-4DE50D872172}">
+  <dimension ref="A2:AD20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2.6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2.83</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>2.6</v>
+      </c>
+      <c r="E7">
+        <v>2.83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E8">
+        <v>2.9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>3.8</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="E9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="E10">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.6040000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>166.5</v>
+      </c>
+      <c r="F15">
+        <v>174.1</v>
+      </c>
+      <c r="G15">
+        <v>157.1</v>
+      </c>
+      <c r="H15">
+        <v>164.8</v>
+      </c>
+      <c r="I15">
+        <v>170.6</v>
+      </c>
+      <c r="J15">
+        <v>175.2</v>
+      </c>
+      <c r="K15">
+        <v>99.9</v>
+      </c>
+      <c r="L15">
+        <v>70.7</v>
+      </c>
+      <c r="M15">
+        <v>51.2</v>
+      </c>
+      <c r="N15">
+        <v>40.9</v>
+      </c>
+      <c r="O15">
+        <v>35.1</v>
+      </c>
+      <c r="P15">
+        <v>31.7</v>
+      </c>
+      <c r="Q15">
+        <v>29.3</v>
+      </c>
+      <c r="R15">
+        <v>24.6</v>
+      </c>
+      <c r="S15">
+        <v>27.3</v>
+      </c>
+      <c r="T15">
+        <v>27.4</v>
+      </c>
+      <c r="U15">
+        <v>27.6</v>
+      </c>
+      <c r="V15">
+        <v>29.2</v>
+      </c>
+      <c r="W15">
+        <v>31</v>
+      </c>
+      <c r="X15">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Y15">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Z15">
+        <v>45.7</v>
+      </c>
+      <c r="AA15">
+        <v>47</v>
+      </c>
+      <c r="AB15">
+        <v>55.45</v>
+      </c>
+      <c r="AC15">
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.6</v>
+      </c>
+      <c r="F16">
+        <v>1.7</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1.9</v>
+      </c>
+      <c r="I16">
+        <v>1.9</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <v>2.6</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3.6</v>
+      </c>
+      <c r="N16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q16">
+        <v>5.6</v>
+      </c>
+      <c r="R16">
+        <v>6.2</v>
+      </c>
+      <c r="S16">
+        <v>6.7</v>
+      </c>
+      <c r="T16">
+        <v>7.1</v>
+      </c>
+      <c r="U16">
+        <v>7.5</v>
+      </c>
+      <c r="V16">
+        <v>8.1</v>
+      </c>
+      <c r="W16">
+        <v>8.6</v>
+      </c>
+      <c r="X16">
+        <v>9.1</v>
+      </c>
+      <c r="Y16">
+        <v>9.6</v>
+      </c>
+      <c r="Z16">
+        <v>10.1</v>
+      </c>
+      <c r="AA16">
+        <v>10.6</v>
+      </c>
+      <c r="AB16">
+        <v>11.15</v>
+      </c>
+      <c r="AC16">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2.8319999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>54.6</v>
+      </c>
+      <c r="E19">
+        <v>175</v>
+      </c>
+      <c r="F19">
+        <v>184.5</v>
+      </c>
+      <c r="G19">
+        <v>182.2</v>
+      </c>
+      <c r="H19">
+        <v>183.9</v>
+      </c>
+      <c r="I19">
+        <v>187.1</v>
+      </c>
+      <c r="J19">
+        <v>186.8</v>
+      </c>
+      <c r="K19">
+        <v>170.5</v>
+      </c>
+      <c r="L19">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="M19">
+        <v>115.2</v>
+      </c>
+      <c r="N19">
+        <v>98.3</v>
+      </c>
+      <c r="O19">
+        <v>85.1</v>
+      </c>
+      <c r="P19">
+        <v>79.8</v>
+      </c>
+      <c r="Q19">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="R19">
+        <v>69.8</v>
+      </c>
+      <c r="S19">
+        <v>67.7</v>
+      </c>
+      <c r="T19">
+        <v>67.8</v>
+      </c>
+      <c r="U19">
+        <v>67.7</v>
+      </c>
+      <c r="V19">
+        <v>67.8</v>
+      </c>
+      <c r="W19">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="X19">
+        <v>74.7</v>
+      </c>
+      <c r="Y19">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Z19">
+        <v>87.7</v>
+      </c>
+      <c r="AA19">
+        <v>95.9</v>
+      </c>
+      <c r="AB19">
+        <v>119.23</v>
+      </c>
+      <c r="AC19">
+        <v>126.96</v>
+      </c>
+      <c r="AD19">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20">
+        <v>1.8</v>
+      </c>
+      <c r="G20">
+        <v>1.9</v>
+      </c>
+      <c r="H20">
+        <v>1.6</v>
+      </c>
+      <c r="I20">
+        <v>1.7</v>
+      </c>
+      <c r="J20">
+        <v>1.7</v>
+      </c>
+      <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
+        <v>2.6</v>
+      </c>
+      <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
+        <v>3.6</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>4.5</v>
+      </c>
+      <c r="Q20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R20">
+        <v>5.6</v>
+      </c>
+      <c r="S20">
+        <v>6.1</v>
+      </c>
+      <c r="T20">
+        <v>6.5</v>
+      </c>
+      <c r="U20">
+        <v>7.1</v>
+      </c>
+      <c r="V20">
+        <v>6.7</v>
+      </c>
+      <c r="W20">
+        <v>7.5</v>
+      </c>
+      <c r="X20">
+        <v>8.1</v>
+      </c>
+      <c r="Y20">
+        <v>8.6</v>
+      </c>
+      <c r="Z20">
+        <v>9.1</v>
+      </c>
+      <c r="AA20">
+        <v>9.6</v>
+      </c>
+      <c r="AB20">
+        <v>10.1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="AD20">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
